--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="53">
   <si>
     <t>Keyword</t>
   </si>
@@ -174,17 +174,13 @@
   </si>
   <si>
     <t>SLEEP_3S</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,66 +242,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -372,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -396,12 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -710,17 +640,17 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F27"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="62.0" collapsed="true"/>
+    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="62" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,9 +706,7 @@
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s" s="13">
-        <v>53</v>
-      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -792,9 +720,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" t="s" s="14">
-        <v>53</v>
-      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -810,9 +736,7 @@
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s" s="15">
-        <v>53</v>
-      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -848,9 +772,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" t="s" s="16">
-        <v>53</v>
-      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -864,9 +786,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" t="s" s="17">
-        <v>53</v>
-      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -876,9 +796,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" t="s" s="18">
-        <v>53</v>
-      </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1545,8 +1463,8 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E28" r:id="rId14"/>
-    <hyperlink ref="E46" r:id="rId15"/>
+    <hyperlink ref="E28" r:id="rId1"/>
+    <hyperlink ref="E46" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
   <si>
     <t>Keyword</t>
   </si>
@@ -174,12 +174,19 @@
   </si>
   <si>
     <t>SLEEP_3S</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +249,246 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -308,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -332,6 +579,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -639,18 +910,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="62" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="62.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -706,7 +977,9 @@
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" t="s" s="23">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -720,7 +993,9 @@
         <v>7</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="8"/>
+      <c r="F5" t="s" s="24">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -736,7 +1011,9 @@
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" t="s" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -758,7 +1035,9 @@
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" t="s" s="26">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -772,7 +1051,9 @@
         <v>7</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="8"/>
+      <c r="F9" t="s" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -786,7 +1067,9 @@
         <v>7</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="8"/>
+      <c r="F10" t="s" s="28">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -796,7 +1079,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="8"/>
+      <c r="F11" t="s" s="29">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -812,7 +1097,9 @@
       <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" t="s" s="30">
+        <v>53</v>
+      </c>
       <c r="G12" s="5" t="s">
         <v>49</v>
       </c>
@@ -837,7 +1124,9 @@
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" t="s" s="31">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -851,7 +1140,9 @@
         <v>7</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="8"/>
+      <c r="F15" t="s" s="32">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -867,7 +1158,9 @@
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" t="s" s="33">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -881,7 +1174,9 @@
         <v>7</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="8"/>
+      <c r="F17" t="s" s="34">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -891,7 +1186,9 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="8"/>
+      <c r="F18" t="s" s="35">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -907,7 +1204,9 @@
       <c r="E19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" t="s" s="36">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -1311,7 +1610,9 @@
       <c r="E50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" t="s" s="13">
+        <v>53</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -1325,7 +1626,9 @@
         <v>7</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="8"/>
+      <c r="F51" t="s" s="14">
+        <v>53</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
@@ -1339,7 +1642,9 @@
         <v>7</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="8"/>
+      <c r="F52" t="s" s="15">
+        <v>53</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
@@ -1353,7 +1658,9 @@
         <v>7</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="8"/>
+      <c r="F53" t="s" s="16">
+        <v>53</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
@@ -1375,7 +1682,9 @@
       <c r="E55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="8"/>
+      <c r="F55" t="s" s="17">
+        <v>53</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -1389,7 +1698,9 @@
         <v>7</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="8"/>
+      <c r="F56" t="s" s="18">
+        <v>53</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
@@ -1403,7 +1714,9 @@
         <v>7</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="8"/>
+      <c r="F57" t="s" s="19">
+        <v>53</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -1417,7 +1730,9 @@
         <v>7</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="8"/>
+      <c r="F58" t="s" s="20">
+        <v>53</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
@@ -1431,7 +1746,9 @@
         <v>7</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="8"/>
+      <c r="F59" t="s" s="21">
+        <v>53</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
@@ -1445,7 +1762,9 @@
         <v>7</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="8"/>
+      <c r="F60" t="s" s="22">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
